--- a/assets/model_importation.xlsx
+++ b/assets/model_importation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mbangupay\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA7B6B42-837A-4E47-BC2A-1DA5E1D4419C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCAFF04-A6E5-4228-9B7F-D7A6202D952A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{F977165A-CBE4-464F-8320-32AE738DC152}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>NOM</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>ADRESSE</t>
+  </si>
+  <si>
+    <t>TELEPHONE_PARENT</t>
   </si>
 </sst>
 </file>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62281818-EFB7-4DB2-8EDD-97EABD499290}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,9 +422,10 @@
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,6 +440,9 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
